--- a/test_cases/PE-16_TC-01_CreateAccountValid.xlsx
+++ b/test_cases/PE-16_TC-01_CreateAccountValid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nico\Escritorio\.UADE\TESTING\TestingAplicaciones-Smere-TPO\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1000954-C847-49D2-A07C-1F933FA20A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74E1CAF-802A-4E50-B527-BDC5342DC4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,9 +147,6 @@
     <t>Last Name = Name</t>
   </si>
   <si>
-    <t>Password = "passtest"</t>
-  </si>
-  <si>
     <t>Date of birth 01/01/2000</t>
   </si>
   <si>
@@ -198,18 +195,12 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Verify if customer can register after entering valid test data</t>
-  </si>
-  <si>
     <t>Enter all test data</t>
   </si>
   <si>
     <t>Register button enables</t>
   </si>
   <si>
-    <t>Cutomer is correctly registered</t>
-  </si>
-  <si>
     <t>Navigate to register webpage</t>
   </si>
   <si>
@@ -217,6 +208,15 @@
   </si>
   <si>
     <t>Create Account - All valid test data</t>
+  </si>
+  <si>
+    <t>Verify if user can register after entering valid test data</t>
+  </si>
+  <si>
+    <t>User is correctly registered</t>
+  </si>
+  <si>
+    <t>Password = Passtest1!</t>
   </si>
 </sst>
 </file>
@@ -714,6 +714,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -753,6 +759,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -785,15 +794,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J8" sqref="J8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,24 +1099,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="53"/>
-      <c r="G1" s="30" t="s">
+      <c r="D1" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="29"/>
+      <c r="G1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34"/>
+      <c r="H1" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="36"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1128,24 +1128,24 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37"/>
+      <c r="D2" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="29"/>
+      <c r="B3" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="31"/>
       <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1156,10 +1156,10 @@
       <c r="G3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="40"/>
+      <c r="H3" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="42"/>
       <c r="J3" s="18" t="s">
         <v>14</v>
       </c>
@@ -1188,14 +1188,14 @@
       <c r="G5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="45" t="s">
+      <c r="I5" s="47"/>
+      <c r="J5" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="46"/>
+      <c r="K5" s="49"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -1204,14 +1204,14 @@
       <c r="G6" s="22">
         <v>1</v>
       </c>
-      <c r="H6" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="48" t="s">
+      <c r="H6" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="52"/>
+      <c r="J6" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="49"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -1229,21 +1229,21 @@
       <c r="G7" s="22">
         <v>2</v>
       </c>
-      <c r="H7" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="49"/>
+      <c r="H7" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="52"/>
+      <c r="J7" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="52"/>
     </row>
     <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>1</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="17">
         <v>1</v>
@@ -1254,21 +1254,21 @@
       <c r="G8" s="22">
         <v>3</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="52"/>
+      <c r="J8" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="49"/>
+      <c r="K8" s="52"/>
     </row>
     <row r="9" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>2</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="17">
         <v>2</v>
@@ -1282,7 +1282,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="17">
         <v>3</v>
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F11" s="8"/>
     </row>
@@ -1305,7 +1305,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1313,7 +1313,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -1322,73 +1322,73 @@
         <v>7</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="17">
         <v>8</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47" t="s">
+      <c r="H15" s="50"/>
+      <c r="I15" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47" t="s">
+      <c r="J15" s="50"/>
+      <c r="K15" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47" t="s">
+      <c r="L15" s="50"/>
+      <c r="M15" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="47"/>
+      <c r="N15" s="50"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="17">
         <v>9</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="41" t="s">
+      <c r="H16" s="45"/>
+      <c r="I16" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="41" t="s">
+      <c r="J16" s="45"/>
+      <c r="K16" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="42"/>
-      <c r="M16" s="41" t="s">
+      <c r="L16" s="45"/>
+      <c r="M16" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="42"/>
+      <c r="N16" s="45"/>
     </row>
     <row r="17" spans="4:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D17" s="17">
         <v>10</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="21" t="s">
         <v>26</v>
@@ -1420,7 +1420,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G18" s="23" t="s">
         <v>29</v>
@@ -1450,7 +1450,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>29</v>
@@ -1480,7 +1480,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>29</v>
@@ -1538,74 +1538,74 @@
       <c r="N23" s="16"/>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="50" t="s">
+      <c r="G25" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50" t="s">
+      <c r="H25" s="53"/>
+      <c r="I25" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50" t="s">
+      <c r="J25" s="53"/>
+      <c r="K25" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50" t="s">
+      <c r="L25" s="53"/>
+      <c r="M25" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="50"/>
+      <c r="N25" s="53"/>
     </row>
     <row r="26" spans="4:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51" t="s">
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
     </row>
     <row r="28" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
     </row>
     <row r="29" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="47">
